--- a/Data/EC/NIT-9013534837.xlsx
+++ b/Data/EC/NIT-9013534837.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D79EDDD-31DB-4822-8605-AAE5F2C7D6A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FFDB214-1BAD-4C5D-89C7-6DE8DBDD6D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{04EBE666-DFCD-45AF-A486-9E5EAAB2E986}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{574ACC1B-B7D2-473B-8D96-CD3E468A037D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="89">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,36 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73168971</t>
+  </si>
+  <si>
+    <t>SAUL CANENCIA IBARRA</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>45534648</t>
+  </si>
+  <si>
+    <t>SORELLYS BEATRIZ BOLAÑO TOBINSON</t>
+  </si>
+  <si>
     <t>73203179</t>
   </si>
   <si>
@@ -74,19 +104,124 @@
     <t>2010</t>
   </si>
   <si>
+    <t>73113837</t>
+  </si>
+  <si>
+    <t>JORGE LUIS LENGUA ALVAREZ</t>
+  </si>
+  <si>
     <t>9145723</t>
   </si>
   <si>
     <t>JAVIER ANTONIO SILGADO PEÑA</t>
   </si>
   <si>
-    <t>1007200296</t>
-  </si>
-  <si>
-    <t>LUIS THOMAS MARTINEZ VELASQUEZ</t>
-  </si>
-  <si>
-    <t>2105</t>
+    <t>73193829</t>
+  </si>
+  <si>
+    <t>GERLYN EULALIO HERRERA CASTRO</t>
+  </si>
+  <si>
+    <t>8797035</t>
+  </si>
+  <si>
+    <t>ROBERTO RAFAEL JIMENEZ DIAZ</t>
+  </si>
+  <si>
+    <t>9236635</t>
+  </si>
+  <si>
+    <t>JORGE IGNACIO PINEDO ECHAVES</t>
+  </si>
+  <si>
+    <t>1047376386</t>
+  </si>
+  <si>
+    <t>JUAN MIGUEL PAYARES MENDOZA</t>
+  </si>
+  <si>
+    <t>73193410</t>
+  </si>
+  <si>
+    <t>LUIS GUILLERMO SANJUAN BARRIOS</t>
+  </si>
+  <si>
+    <t>73184744</t>
+  </si>
+  <si>
+    <t>JULIO CESAR MARRUGO CANTILLO</t>
+  </si>
+  <si>
+    <t>1143357428</t>
+  </si>
+  <si>
+    <t>JACKELIN SALGUEDO FERNANDEZ</t>
+  </si>
+  <si>
+    <t>73127719</t>
+  </si>
+  <si>
+    <t>OSVALDO BELLO PEREZ</t>
+  </si>
+  <si>
+    <t>1047388614</t>
+  </si>
+  <si>
+    <t>ANDRES EDUARDO JAIMES POLO</t>
+  </si>
+  <si>
+    <t>1047383498</t>
+  </si>
+  <si>
+    <t>JAIRO MARTINEZ VELASCO</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>8852117</t>
+  </si>
+  <si>
+    <t>LUIS ENRIQUE SALGADO MORENO</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>548742</t>
+  </si>
+  <si>
+    <t>SERGIO ESTEBAN GOMEZ MIRALLES</t>
+  </si>
+  <si>
+    <t>1043963315</t>
+  </si>
+  <si>
+    <t>PEDRO BATISTA CARRILLO</t>
+  </si>
+  <si>
+    <t>1143405056</t>
+  </si>
+  <si>
+    <t>KENNY LOZANO MONTALVO</t>
+  </si>
+  <si>
+    <t>1048935716</t>
+  </si>
+  <si>
+    <t>LUIS ANGEL CHARRIS PAYARES</t>
+  </si>
+  <si>
+    <t>1002199101</t>
+  </si>
+  <si>
+    <t>HARRY FERNANDEZ CASTRO</t>
+  </si>
+  <si>
+    <t>73190061</t>
+  </si>
+  <si>
+    <t>OMAR DE JESUS JULIO CHAVEZ</t>
   </si>
   <si>
     <t>7959394</t>
@@ -95,190 +230,46 @@
     <t>CARLOS DAVID THERAN CASTILLA</t>
   </si>
   <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
     <t>2204</t>
   </si>
   <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>1143405056</t>
-  </si>
-  <si>
-    <t>KENNY LOZANO MONTALVO</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
     <t>1047506976</t>
   </si>
   <si>
     <t>ERNESTO CARLOS BARRAZA OROZCO</t>
   </si>
   <si>
-    <t>73168971</t>
-  </si>
-  <si>
-    <t>SAUL CANENCIA IBARRA</t>
-  </si>
-  <si>
-    <t>73113837</t>
-  </si>
-  <si>
-    <t>JORGE LUIS LENGUA ALVAREZ</t>
+    <t>1044931316</t>
+  </si>
+  <si>
+    <t>RAFAEL EDUARDO FRANCO BRAVO</t>
+  </si>
+  <si>
+    <t>1004179229</t>
+  </si>
+  <si>
+    <t>EDUARD IVAN BRITTO MOLA</t>
   </si>
   <si>
     <t>1042580286</t>
   </si>
   <si>
     <t>ESTEVAN DE JESUS OLIVARES PAJARO</t>
-  </si>
-  <si>
-    <t>8797035</t>
-  </si>
-  <si>
-    <t>ROBERTO RAFAEL JIMENEZ DIAZ</t>
-  </si>
-  <si>
-    <t>1004179229</t>
-  </si>
-  <si>
-    <t>EDUARD IVAN BRITTO MOLA</t>
-  </si>
-  <si>
-    <t>1002199101</t>
-  </si>
-  <si>
-    <t>HARRY FERNANDEZ CASTRO</t>
-  </si>
-  <si>
-    <t>1044931316</t>
-  </si>
-  <si>
-    <t>RAFAEL EDUARDO FRANCO BRAVO</t>
-  </si>
-  <si>
-    <t>73193829</t>
-  </si>
-  <si>
-    <t>GERLYN EULALIO HERRERA CASTRO</t>
-  </si>
-  <si>
-    <t>1143357428</t>
-  </si>
-  <si>
-    <t>JACKELIN SALGUEDO FERNANDEZ</t>
-  </si>
-  <si>
-    <t>45534648</t>
-  </si>
-  <si>
-    <t>SORELLYS BEATRIZ BOLAÑO TOBINSON</t>
-  </si>
-  <si>
-    <t>8852117</t>
-  </si>
-  <si>
-    <t>LUIS ENRIQUE SALGADO MORENO</t>
-  </si>
-  <si>
-    <t>1047376386</t>
-  </si>
-  <si>
-    <t>JUAN MIGUEL PAYARES MENDOZA</t>
-  </si>
-  <si>
-    <t>9236635</t>
-  </si>
-  <si>
-    <t>JORGE IGNACIO PINEDO ECHAVES</t>
-  </si>
-  <si>
-    <t>1048935716</t>
-  </si>
-  <si>
-    <t>LUIS ANGEL CHARRIS PAYARES</t>
-  </si>
-  <si>
-    <t>1047383498</t>
-  </si>
-  <si>
-    <t>JAIRO MARTINEZ VELASCO</t>
-  </si>
-  <si>
-    <t>73127719</t>
-  </si>
-  <si>
-    <t>OSVALDO BELLO PEREZ</t>
-  </si>
-  <si>
-    <t>73184744</t>
-  </si>
-  <si>
-    <t>JULIO CESAR MARRUGO CANTILLO</t>
-  </si>
-  <si>
-    <t>1047388614</t>
-  </si>
-  <si>
-    <t>ANDRES EDUARDO JAIMES POLO</t>
-  </si>
-  <si>
-    <t>CE</t>
-  </si>
-  <si>
-    <t>548742</t>
-  </si>
-  <si>
-    <t>SERGIO ESTEBAN GOMEZ MIRALLES</t>
-  </si>
-  <si>
-    <t>73193410</t>
-  </si>
-  <si>
-    <t>LUIS GUILLERMO SANJUAN BARRIOS</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>73190061</t>
-  </si>
-  <si>
-    <t>OMAR DE JESUS JULIO CHAVEZ</t>
-  </si>
-  <si>
-    <t>1043963315</t>
-  </si>
-  <si>
-    <t>PEDRO BATISTA CARRILLO</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -692,7 +683,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{828BFF39-BCA0-906F-A684-E420AADF3A8D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD6798AC-576D-E0EE-20EA-EB8E2C1658D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1043,8 +1034,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA1A938-D640-4A6D-B81E-E0CABD3F330F}">
-  <dimension ref="B2:J167"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD970AED-E4EF-4543-8346-9BBAF2E5CA12}">
+  <dimension ref="B2:J155"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1068,7 +1059,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1113,7 +1104,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1145,12 +1136,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>7340582</v>
+        <v>6806008</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1161,17 +1152,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C13" s="5">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F13" s="5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1198,13 +1189,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1221,10 +1212,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>35112</v>
+        <v>52000</v>
       </c>
       <c r="G16" s="18">
-        <v>877803</v>
+        <v>1300000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1235,19 +1226,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>35112</v>
+        <v>52000</v>
       </c>
       <c r="G17" s="18">
-        <v>877803</v>
+        <v>1300000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1258,19 +1249,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>30284</v>
+        <v>52000</v>
       </c>
       <c r="G18" s="18">
-        <v>908526</v>
+        <v>1300000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1281,19 +1272,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>24000</v>
+        <v>52000</v>
       </c>
       <c r="G19" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1304,19 +1295,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G20" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1327,19 +1318,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G21" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1356,13 +1347,13 @@
         <v>18</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F22" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G22" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1379,13 +1370,13 @@
         <v>18</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F23" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G23" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1402,13 +1393,13 @@
         <v>18</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F24" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G24" s="18">
-        <v>1000000</v>
+        <v>828116</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1419,19 +1410,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F25" s="18">
         <v>52000</v>
       </c>
       <c r="G25" s="18">
-        <v>1300000</v>
+        <v>828116</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1442,19 +1433,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>52000</v>
+        <v>35112</v>
       </c>
       <c r="G26" s="18">
-        <v>1300000</v>
+        <v>877803</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1465,13 +1456,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F27" s="18">
         <v>52000</v>
@@ -1488,13 +1479,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F28" s="18">
         <v>52000</v>
@@ -1511,16 +1502,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F29" s="18">
-        <v>26000</v>
+        <v>52000</v>
       </c>
       <c r="G29" s="18">
         <v>1300000</v>
@@ -1534,13 +1525,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F30" s="18">
         <v>52000</v>
@@ -1557,19 +1548,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F31" s="18">
-        <v>52000</v>
+        <v>35112</v>
       </c>
       <c r="G31" s="18">
-        <v>1300000</v>
+        <v>877803</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1580,19 +1571,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F32" s="18">
         <v>52000</v>
       </c>
       <c r="G32" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1603,19 +1594,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F33" s="18">
         <v>52000</v>
       </c>
       <c r="G33" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1626,13 +1617,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F34" s="18">
         <v>52000</v>
@@ -1649,19 +1640,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F35" s="18">
         <v>52000</v>
       </c>
       <c r="G35" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1672,13 +1663,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F36" s="18">
         <v>52000</v>
@@ -1695,19 +1686,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F37" s="18">
         <v>52000</v>
       </c>
       <c r="G37" s="18">
-        <v>1193284</v>
+        <v>1300000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1718,13 +1709,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F38" s="18">
         <v>52000</v>
@@ -1741,13 +1732,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F39" s="18">
         <v>52000</v>
@@ -1764,19 +1755,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F40" s="18">
         <v>52000</v>
       </c>
       <c r="G40" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1787,13 +1778,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F41" s="18">
         <v>52000</v>
@@ -1810,19 +1801,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F42" s="18">
         <v>52000</v>
       </c>
       <c r="G42" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1833,16 +1824,16 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F43" s="18">
-        <v>26000</v>
+        <v>52000</v>
       </c>
       <c r="G43" s="18">
         <v>1300000</v>
@@ -1856,13 +1847,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F44" s="18">
         <v>52000</v>
@@ -1876,16 +1867,16 @@
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F45" s="18">
         <v>52000</v>
@@ -1902,13 +1893,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F46" s="18">
         <v>52000</v>
@@ -1931,7 +1922,7 @@
         <v>31</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="F47" s="18">
         <v>52000</v>
@@ -1948,13 +1939,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="F48" s="18">
         <v>52000</v>
@@ -1971,13 +1962,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="F49" s="18">
         <v>52000</v>
@@ -1994,19 +1985,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="F50" s="18">
         <v>52000</v>
       </c>
       <c r="G50" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2017,13 +2008,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="F51" s="18">
         <v>52000</v>
@@ -2037,16 +2028,16 @@
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="F52" s="18">
         <v>52000</v>
@@ -2063,13 +2054,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="F53" s="18">
         <v>52000</v>
@@ -2086,13 +2077,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="F54" s="18">
         <v>52000</v>
@@ -2109,13 +2100,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="F55" s="18">
         <v>52000</v>
@@ -2132,13 +2123,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="F56" s="18">
         <v>52000</v>
@@ -2155,13 +2146,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="F57" s="18">
         <v>52000</v>
@@ -2178,13 +2169,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="F58" s="18">
         <v>52000</v>
@@ -2201,13 +2192,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="F59" s="18">
         <v>52000</v>
@@ -2224,19 +2215,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="F60" s="18">
         <v>52000</v>
       </c>
       <c r="G60" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2247,13 +2238,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="F61" s="18">
         <v>52000</v>
@@ -2270,13 +2261,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="F62" s="18">
         <v>52000</v>
@@ -2293,16 +2284,16 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="F63" s="18">
-        <v>52000</v>
+        <v>26000</v>
       </c>
       <c r="G63" s="18">
         <v>1300000</v>
@@ -2316,13 +2307,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="F64" s="18">
         <v>52000</v>
@@ -2339,19 +2330,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="F65" s="18">
         <v>52000</v>
       </c>
       <c r="G65" s="18">
-        <v>1193284</v>
+        <v>1300000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2362,13 +2353,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="F66" s="18">
         <v>52000</v>
@@ -2385,19 +2376,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="F67" s="18">
         <v>52000</v>
       </c>
       <c r="G67" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2408,13 +2399,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="F68" s="18">
         <v>52000</v>
@@ -2431,13 +2422,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="F69" s="18">
         <v>52000</v>
@@ -2454,13 +2445,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="F70" s="18">
         <v>52000</v>
@@ -2477,13 +2468,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="F71" s="18">
         <v>52000</v>
@@ -2500,19 +2491,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="F72" s="18">
         <v>52000</v>
       </c>
       <c r="G72" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2523,13 +2514,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="F73" s="18">
         <v>52000</v>
@@ -2546,19 +2537,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="F74" s="18">
         <v>52000</v>
       </c>
       <c r="G74" s="18">
-        <v>1193284</v>
+        <v>1300000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2569,19 +2560,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="F75" s="18">
         <v>52000</v>
       </c>
       <c r="G75" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2592,13 +2583,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="F76" s="18">
         <v>52000</v>
@@ -2615,13 +2606,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="F77" s="18">
         <v>52000</v>
@@ -2638,16 +2629,16 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="F78" s="18">
-        <v>52000</v>
+        <v>45066</v>
       </c>
       <c r="G78" s="18">
         <v>1300000</v>
@@ -2661,19 +2652,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="F79" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G79" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2684,13 +2675,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="F80" s="18">
         <v>52000</v>
@@ -2707,13 +2698,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="F81" s="18">
         <v>52000</v>
@@ -2730,19 +2721,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="F82" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G82" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2753,13 +2744,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="F83" s="18">
         <v>52000</v>
@@ -2776,13 +2767,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="F84" s="18">
         <v>52000</v>
@@ -2799,19 +2790,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="F85" s="18">
         <v>52000</v>
       </c>
       <c r="G85" s="18">
-        <v>1300000</v>
+        <v>1193284</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2822,19 +2813,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="F86" s="18">
         <v>52000</v>
       </c>
       <c r="G86" s="18">
-        <v>1300000</v>
+        <v>1193284</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2845,19 +2836,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="F87" s="18">
         <v>52000</v>
       </c>
       <c r="G87" s="18">
-        <v>1300000</v>
+        <v>1193284</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2865,22 +2856,22 @@
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="F88" s="18">
         <v>52000</v>
       </c>
       <c r="G88" s="18">
-        <v>1300000</v>
+        <v>1193284</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2891,19 +2882,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="F89" s="18">
         <v>52000</v>
       </c>
       <c r="G89" s="18">
-        <v>1300000</v>
+        <v>1193284</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2914,19 +2905,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="F90" s="18">
         <v>52000</v>
       </c>
       <c r="G90" s="18">
-        <v>1300000</v>
+        <v>1193284</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2934,22 +2925,22 @@
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="F91" s="18">
         <v>52000</v>
       </c>
       <c r="G91" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2957,16 +2948,16 @@
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="F92" s="18">
         <v>52000</v>
@@ -2980,16 +2971,16 @@
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="F93" s="18">
         <v>52000</v>
@@ -3003,16 +2994,16 @@
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="F94" s="18">
         <v>52000</v>
@@ -3029,13 +3020,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="F95" s="18">
         <v>56940</v>
@@ -3052,19 +3043,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="F96" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G96" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3072,22 +3063,22 @@
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="F97" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G97" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3098,19 +3089,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="F98" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G98" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3121,16 +3112,16 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="F99" s="18">
-        <v>52000</v>
+        <v>45066</v>
       </c>
       <c r="G99" s="18">
         <v>1300000</v>
@@ -3144,19 +3135,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="F100" s="18">
         <v>52000</v>
       </c>
       <c r="G100" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3167,13 +3158,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="F101" s="18">
         <v>52000</v>
@@ -3190,19 +3181,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="F102" s="18">
         <v>52000</v>
       </c>
       <c r="G102" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3213,13 +3204,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="F103" s="18">
         <v>52000</v>
@@ -3236,19 +3227,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="F104" s="18">
         <v>52000</v>
       </c>
       <c r="G104" s="18">
-        <v>1193284</v>
+        <v>1300000</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3259,13 +3250,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="F105" s="18">
         <v>52000</v>
@@ -3282,13 +3273,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="F106" s="18">
         <v>52000</v>
@@ -3305,13 +3296,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="F107" s="18">
         <v>52000</v>
@@ -3328,13 +3319,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="F108" s="18">
         <v>52000</v>
@@ -3351,13 +3342,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="F109" s="18">
         <v>52000</v>
@@ -3374,19 +3365,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="F110" s="18">
-        <v>56940</v>
+        <v>45066</v>
       </c>
       <c r="G110" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3397,13 +3388,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="F111" s="18">
         <v>52000</v>
@@ -3420,19 +3411,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="F112" s="18">
         <v>52000</v>
       </c>
       <c r="G112" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3443,13 +3434,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="F113" s="18">
         <v>52000</v>
@@ -3466,13 +3457,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="F114" s="18">
         <v>52000</v>
@@ -3489,13 +3480,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="F115" s="18">
         <v>52000</v>
@@ -3512,13 +3503,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="F116" s="18">
         <v>52000</v>
@@ -3535,16 +3526,16 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="F117" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G117" s="18">
         <v>1300000</v>
@@ -3558,16 +3549,16 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="F118" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G118" s="18">
         <v>1300000</v>
@@ -3581,16 +3572,16 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="F119" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G119" s="18">
         <v>1300000</v>
@@ -3604,19 +3595,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="F120" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G120" s="18">
-        <v>1193284</v>
+        <v>1300000</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3627,19 +3618,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="F121" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G121" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3650,19 +3641,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F122" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G122" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3673,19 +3664,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F123" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G123" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3696,19 +3687,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F124" s="18">
-        <v>56940</v>
+        <v>40000</v>
       </c>
       <c r="G124" s="18">
-        <v>1423500</v>
+        <v>1000000</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3719,19 +3710,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F125" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G125" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3742,19 +3733,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F126" s="18">
-        <v>52000</v>
+        <v>24000</v>
       </c>
       <c r="G126" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3765,16 +3756,16 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="F127" s="18">
-        <v>52000</v>
+        <v>45066</v>
       </c>
       <c r="G127" s="18">
         <v>1300000</v>
@@ -3788,13 +3779,13 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="F128" s="18">
         <v>52000</v>
@@ -3811,13 +3802,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="F129" s="18">
         <v>52000</v>
@@ -3834,13 +3825,13 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="F130" s="18">
         <v>52000</v>
@@ -3857,19 +3848,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="F131" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G131" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -3880,19 +3871,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="F132" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G132" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -3903,13 +3894,13 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="F133" s="18">
         <v>52000</v>
@@ -3926,19 +3917,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="F134" s="18">
         <v>52000</v>
       </c>
       <c r="G134" s="18">
-        <v>1193284</v>
+        <v>1300000</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -3949,13 +3940,13 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="F135" s="18">
         <v>52000</v>
@@ -3972,13 +3963,13 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="F136" s="18">
         <v>52000</v>
@@ -3995,13 +3986,13 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="F137" s="18">
         <v>52000</v>
@@ -4018,13 +4009,13 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="F138" s="18">
         <v>52000</v>
@@ -4041,13 +4032,13 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="F139" s="18">
         <v>52000</v>
@@ -4064,13 +4055,13 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="F140" s="18">
         <v>52000</v>
@@ -4087,13 +4078,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="F141" s="18">
         <v>52000</v>
@@ -4110,13 +4101,13 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="F142" s="18">
         <v>52000</v>
@@ -4133,13 +4124,13 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="F143" s="18">
         <v>52000</v>
@@ -4156,13 +4147,13 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="F144" s="18">
         <v>52000</v>
@@ -4179,19 +4170,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="F145" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G145" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4202,13 +4193,13 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="F146" s="18">
         <v>52000</v>
@@ -4225,19 +4216,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="F147" s="18">
-        <v>49348</v>
+        <v>52000</v>
       </c>
       <c r="G147" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4248,16 +4239,16 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="F148" s="18">
-        <v>45066</v>
+        <v>52000</v>
       </c>
       <c r="G148" s="18">
         <v>1300000</v>
@@ -4267,332 +4258,56 @@
       <c r="J148" s="20"/>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B149" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C149" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D149" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E149" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F149" s="18">
-        <v>45066</v>
-      </c>
-      <c r="G149" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H149" s="19"/>
-      <c r="I149" s="19"/>
-      <c r="J149" s="20"/>
-    </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B150" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C150" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D150" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E150" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F150" s="18">
-        <v>45066</v>
-      </c>
-      <c r="G150" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H150" s="19"/>
-      <c r="I150" s="19"/>
-      <c r="J150" s="20"/>
-    </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B151" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C151" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D151" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E151" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F151" s="18">
-        <v>45066</v>
-      </c>
-      <c r="G151" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H151" s="19"/>
-      <c r="I151" s="19"/>
-      <c r="J151" s="20"/>
-    </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B152" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C152" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D152" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E152" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F152" s="18">
-        <v>45066</v>
-      </c>
-      <c r="G152" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H152" s="19"/>
-      <c r="I152" s="19"/>
-      <c r="J152" s="20"/>
-    </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B153" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C153" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D153" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E153" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F153" s="18">
-        <v>45066</v>
-      </c>
-      <c r="G153" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H153" s="19"/>
-      <c r="I153" s="19"/>
-      <c r="J153" s="20"/>
+      <c r="B149" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D149" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E149" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F149" s="24">
+        <v>26000</v>
+      </c>
+      <c r="G149" s="24">
+        <v>1300000</v>
+      </c>
+      <c r="H149" s="25"/>
+      <c r="I149" s="25"/>
+      <c r="J149" s="26"/>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B154" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C154" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D154" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E154" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F154" s="18">
-        <v>45066</v>
-      </c>
-      <c r="G154" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H154" s="19"/>
-      <c r="I154" s="19"/>
-      <c r="J154" s="20"/>
+      <c r="B154" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C154" s="32"/>
+      <c r="H154" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I154" s="1"/>
+      <c r="J154" s="1"/>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B155" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C155" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D155" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E155" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F155" s="18">
-        <v>45066</v>
-      </c>
-      <c r="G155" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H155" s="19"/>
-      <c r="I155" s="19"/>
-      <c r="J155" s="20"/>
-    </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B156" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C156" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D156" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E156" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F156" s="18">
-        <v>45066</v>
-      </c>
-      <c r="G156" s="18">
-        <v>1193284</v>
-      </c>
-      <c r="H156" s="19"/>
-      <c r="I156" s="19"/>
-      <c r="J156" s="20"/>
-    </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B157" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C157" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D157" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E157" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F157" s="18">
-        <v>45066</v>
-      </c>
-      <c r="G157" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H157" s="19"/>
-      <c r="I157" s="19"/>
-      <c r="J157" s="20"/>
-    </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B158" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C158" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D158" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E158" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F158" s="18">
-        <v>45066</v>
-      </c>
-      <c r="G158" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H158" s="19"/>
-      <c r="I158" s="19"/>
-      <c r="J158" s="20"/>
-    </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B159" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C159" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D159" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E159" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F159" s="18">
-        <v>45066</v>
-      </c>
-      <c r="G159" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H159" s="19"/>
-      <c r="I159" s="19"/>
-      <c r="J159" s="20"/>
-    </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B160" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C160" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D160" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E160" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F160" s="18">
-        <v>49348</v>
-      </c>
-      <c r="G160" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H160" s="19"/>
-      <c r="I160" s="19"/>
-      <c r="J160" s="20"/>
-    </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B161" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C161" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D161" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E161" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="F161" s="24">
-        <v>45066</v>
-      </c>
-      <c r="G161" s="24">
-        <v>1300000</v>
-      </c>
-      <c r="H161" s="25"/>
-      <c r="I161" s="25"/>
-      <c r="J161" s="26"/>
-    </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B166" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="C166" s="32"/>
-      <c r="H166" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I166" s="1"/>
-      <c r="J166" s="1"/>
-    </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B167" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="C167" s="32"/>
-      <c r="H167" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I167" s="1"/>
-      <c r="J167" s="1"/>
+      <c r="B155" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C155" s="32"/>
+      <c r="H155" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="H167:J167"/>
-    <mergeCell ref="H166:J166"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="H155:J155"/>
+    <mergeCell ref="H154:J154"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9013534837.xlsx
+++ b/Data/EC/NIT-9013534837.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FFDB214-1BAD-4C5D-89C7-6DE8DBDD6D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D77C00BA-C036-4416-ABA0-29E1F49ED7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{574ACC1B-B7D2-473B-8D96-CD3E468A037D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3C444E05-C5F5-4EC8-A09A-29A5C5537827}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,211 +65,211 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73203179</t>
+  </si>
+  <si>
+    <t>EMILIO JOSE CONTRERAS COLON</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>9145723</t>
+  </si>
+  <si>
+    <t>JAVIER ANTONIO SILGADO PEÑA</t>
+  </si>
+  <si>
+    <t>7959394</t>
+  </si>
+  <si>
+    <t>CARLOS DAVID THERAN CASTILLA</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
     <t>73168971</t>
   </si>
   <si>
     <t>SAUL CANENCIA IBARRA</t>
   </si>
   <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>45534648</t>
+  </si>
+  <si>
+    <t>SORELLYS BEATRIZ BOLAÑO TOBINSON</t>
+  </si>
+  <si>
+    <t>73113837</t>
+  </si>
+  <si>
+    <t>JORGE LUIS LENGUA ALVAREZ</t>
+  </si>
+  <si>
+    <t>73193829</t>
+  </si>
+  <si>
+    <t>GERLYN EULALIO HERRERA CASTRO</t>
+  </si>
+  <si>
+    <t>8797035</t>
+  </si>
+  <si>
+    <t>ROBERTO RAFAEL JIMENEZ DIAZ</t>
+  </si>
+  <si>
+    <t>9236635</t>
+  </si>
+  <si>
+    <t>JORGE IGNACIO PINEDO ECHAVES</t>
+  </si>
+  <si>
+    <t>1047376386</t>
+  </si>
+  <si>
+    <t>JUAN MIGUEL PAYARES MENDOZA</t>
+  </si>
+  <si>
+    <t>73193410</t>
+  </si>
+  <si>
+    <t>LUIS GUILLERMO SANJUAN BARRIOS</t>
+  </si>
+  <si>
+    <t>73184744</t>
+  </si>
+  <si>
+    <t>JULIO CESAR MARRUGO CANTILLO</t>
+  </si>
+  <si>
+    <t>1143357428</t>
+  </si>
+  <si>
+    <t>JACKELIN SALGUEDO FERNANDEZ</t>
+  </si>
+  <si>
+    <t>73127719</t>
+  </si>
+  <si>
+    <t>OSVALDO BELLO PEREZ</t>
+  </si>
+  <si>
+    <t>1047388614</t>
+  </si>
+  <si>
+    <t>ANDRES EDUARDO JAIMES POLO</t>
+  </si>
+  <si>
+    <t>1047383498</t>
+  </si>
+  <si>
+    <t>JAIRO MARTINEZ VELASCO</t>
+  </si>
+  <si>
+    <t>8852117</t>
+  </si>
+  <si>
+    <t>LUIS ENRIQUE SALGADO MORENO</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>548742</t>
+  </si>
+  <si>
+    <t>SERGIO ESTEBAN GOMEZ MIRALLES</t>
+  </si>
+  <si>
+    <t>1143405056</t>
+  </si>
+  <si>
+    <t>KENNY LOZANO MONTALVO</t>
+  </si>
+  <si>
+    <t>1048935716</t>
+  </si>
+  <si>
+    <t>LUIS ANGEL CHARRIS PAYARES</t>
+  </si>
+  <si>
+    <t>1002199101</t>
+  </si>
+  <si>
+    <t>HARRY FERNANDEZ CASTRO</t>
+  </si>
+  <si>
+    <t>1047506976</t>
+  </si>
+  <si>
+    <t>ERNESTO CARLOS BARRAZA OROZCO</t>
+  </si>
+  <si>
+    <t>1044931316</t>
+  </si>
+  <si>
+    <t>RAFAEL EDUARDO FRANCO BRAVO</t>
+  </si>
+  <si>
+    <t>1004179229</t>
+  </si>
+  <si>
+    <t>EDUARD IVAN BRITTO MOLA</t>
+  </si>
+  <si>
+    <t>1042580286</t>
+  </si>
+  <si>
+    <t>ESTEVAN DE JESUS OLIVARES PAJARO</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>1043963315</t>
+  </si>
+  <si>
+    <t>PEDRO BATISTA CARRILLO</t>
+  </si>
+  <si>
+    <t>73190061</t>
+  </si>
+  <si>
+    <t>OMAR DE JESUS JULIO CHAVEZ</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
     <t>2505</t>
   </si>
   <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>45534648</t>
-  </si>
-  <si>
-    <t>SORELLYS BEATRIZ BOLAÑO TOBINSON</t>
-  </si>
-  <si>
-    <t>73203179</t>
-  </si>
-  <si>
-    <t>EMILIO JOSE CONTRERAS COLON</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>73113837</t>
-  </si>
-  <si>
-    <t>JORGE LUIS LENGUA ALVAREZ</t>
-  </si>
-  <si>
-    <t>9145723</t>
-  </si>
-  <si>
-    <t>JAVIER ANTONIO SILGADO PEÑA</t>
-  </si>
-  <si>
-    <t>73193829</t>
-  </si>
-  <si>
-    <t>GERLYN EULALIO HERRERA CASTRO</t>
-  </si>
-  <si>
-    <t>8797035</t>
-  </si>
-  <si>
-    <t>ROBERTO RAFAEL JIMENEZ DIAZ</t>
-  </si>
-  <si>
-    <t>9236635</t>
-  </si>
-  <si>
-    <t>JORGE IGNACIO PINEDO ECHAVES</t>
-  </si>
-  <si>
-    <t>1047376386</t>
-  </si>
-  <si>
-    <t>JUAN MIGUEL PAYARES MENDOZA</t>
-  </si>
-  <si>
-    <t>73193410</t>
-  </si>
-  <si>
-    <t>LUIS GUILLERMO SANJUAN BARRIOS</t>
-  </si>
-  <si>
-    <t>73184744</t>
-  </si>
-  <si>
-    <t>JULIO CESAR MARRUGO CANTILLO</t>
-  </si>
-  <si>
-    <t>1143357428</t>
-  </si>
-  <si>
-    <t>JACKELIN SALGUEDO FERNANDEZ</t>
-  </si>
-  <si>
-    <t>73127719</t>
-  </si>
-  <si>
-    <t>OSVALDO BELLO PEREZ</t>
-  </si>
-  <si>
-    <t>1047388614</t>
-  </si>
-  <si>
-    <t>ANDRES EDUARDO JAIMES POLO</t>
-  </si>
-  <si>
-    <t>1047383498</t>
-  </si>
-  <si>
-    <t>JAIRO MARTINEZ VELASCO</t>
-  </si>
-  <si>
     <t>2506</t>
-  </si>
-  <si>
-    <t>8852117</t>
-  </si>
-  <si>
-    <t>LUIS ENRIQUE SALGADO MORENO</t>
-  </si>
-  <si>
-    <t>CE</t>
-  </si>
-  <si>
-    <t>548742</t>
-  </si>
-  <si>
-    <t>SERGIO ESTEBAN GOMEZ MIRALLES</t>
-  </si>
-  <si>
-    <t>1043963315</t>
-  </si>
-  <si>
-    <t>PEDRO BATISTA CARRILLO</t>
-  </si>
-  <si>
-    <t>1143405056</t>
-  </si>
-  <si>
-    <t>KENNY LOZANO MONTALVO</t>
-  </si>
-  <si>
-    <t>1048935716</t>
-  </si>
-  <si>
-    <t>LUIS ANGEL CHARRIS PAYARES</t>
-  </si>
-  <si>
-    <t>1002199101</t>
-  </si>
-  <si>
-    <t>HARRY FERNANDEZ CASTRO</t>
-  </si>
-  <si>
-    <t>73190061</t>
-  </si>
-  <si>
-    <t>OMAR DE JESUS JULIO CHAVEZ</t>
-  </si>
-  <si>
-    <t>7959394</t>
-  </si>
-  <si>
-    <t>CARLOS DAVID THERAN CASTILLA</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>1047506976</t>
-  </si>
-  <si>
-    <t>ERNESTO CARLOS BARRAZA OROZCO</t>
-  </si>
-  <si>
-    <t>1044931316</t>
-  </si>
-  <si>
-    <t>RAFAEL EDUARDO FRANCO BRAVO</t>
-  </si>
-  <si>
-    <t>1004179229</t>
-  </si>
-  <si>
-    <t>EDUARD IVAN BRITTO MOLA</t>
-  </si>
-  <si>
-    <t>1042580286</t>
-  </si>
-  <si>
-    <t>ESTEVAN DE JESUS OLIVARES PAJARO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -368,7 +368,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -381,9 +383,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -583,23 +583,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -627,10 +627,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -683,7 +683,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD6798AC-576D-E0EE-20EA-EB8E2C1658D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6A7BC62-6938-F879-8CAF-FE552383051A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1034,7 +1034,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD970AED-E4EF-4543-8346-9BBAF2E5CA12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD109F00-57A6-4E71-885E-91D309D9E634}">
   <dimension ref="B2:J155"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1212,10 +1212,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>52000</v>
+        <v>35112</v>
       </c>
       <c r="G16" s="18">
-        <v>1300000</v>
+        <v>877803</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1226,19 +1226,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>52000</v>
+        <v>35112</v>
       </c>
       <c r="G17" s="18">
-        <v>1300000</v>
+        <v>877803</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1249,19 +1249,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F18" s="18">
-        <v>52000</v>
+        <v>24000</v>
       </c>
       <c r="G18" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1272,19 +1272,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F19" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G19" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1295,19 +1295,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F20" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G20" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1318,19 +1318,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F21" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G21" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1341,19 +1341,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F22" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G22" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1364,19 +1364,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F23" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G23" s="18">
-        <v>828116</v>
+        <v>1000000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1387,19 +1387,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F24" s="18">
         <v>52000</v>
       </c>
       <c r="G24" s="18">
-        <v>828116</v>
+        <v>1300000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1410,19 +1410,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F25" s="18">
         <v>52000</v>
       </c>
       <c r="G25" s="18">
-        <v>828116</v>
+        <v>1300000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1433,19 +1433,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F26" s="18">
-        <v>35112</v>
+        <v>52000</v>
       </c>
       <c r="G26" s="18">
-        <v>877803</v>
+        <v>1300000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1456,13 +1456,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
         <v>52000</v>
@@ -1479,13 +1479,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F28" s="18">
         <v>52000</v>
@@ -1502,13 +1502,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>52000</v>
@@ -1525,13 +1525,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F30" s="18">
         <v>52000</v>
@@ -1548,19 +1548,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="F31" s="18">
-        <v>35112</v>
+        <v>52000</v>
       </c>
       <c r="G31" s="18">
-        <v>877803</v>
+        <v>1300000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1571,19 +1571,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F32" s="18">
-        <v>52000</v>
+        <v>26000</v>
       </c>
       <c r="G32" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1594,19 +1594,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F33" s="18">
         <v>52000</v>
       </c>
       <c r="G33" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1617,19 +1617,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F34" s="18">
         <v>52000</v>
       </c>
       <c r="G34" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1640,19 +1640,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F35" s="18">
         <v>52000</v>
       </c>
       <c r="G35" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1663,13 +1663,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F36" s="18">
         <v>52000</v>
@@ -1686,13 +1686,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F37" s="18">
         <v>52000</v>
@@ -1706,16 +1706,16 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F38" s="18">
         <v>52000</v>
@@ -1732,13 +1732,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F39" s="18">
         <v>52000</v>
@@ -1755,13 +1755,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F40" s="18">
         <v>52000</v>
@@ -1778,13 +1778,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F41" s="18">
         <v>52000</v>
@@ -1801,13 +1801,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F42" s="18">
         <v>52000</v>
@@ -1824,13 +1824,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F43" s="18">
         <v>52000</v>
@@ -1847,13 +1847,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F44" s="18">
         <v>52000</v>
@@ -1870,16 +1870,16 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F45" s="18">
-        <v>52000</v>
+        <v>26000</v>
       </c>
       <c r="G45" s="18">
         <v>1300000</v>
@@ -1893,13 +1893,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="F46" s="18">
         <v>52000</v>
@@ -1916,13 +1916,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="F47" s="18">
         <v>52000</v>
@@ -1939,13 +1939,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="F48" s="18">
         <v>52000</v>
@@ -1962,13 +1962,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="F49" s="18">
         <v>52000</v>
@@ -1985,13 +1985,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D50" s="17" t="s">
-        <v>33</v>
-      </c>
       <c r="E50" s="16" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="F50" s="18">
         <v>52000</v>
@@ -2008,13 +2008,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="F51" s="18">
         <v>52000</v>
@@ -2031,13 +2031,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="F52" s="18">
         <v>52000</v>
@@ -2054,13 +2054,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="F53" s="18">
         <v>52000</v>
@@ -2077,13 +2077,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="F54" s="18">
         <v>52000</v>
@@ -2100,13 +2100,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="F55" s="18">
         <v>52000</v>
@@ -2123,13 +2123,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="F56" s="18">
         <v>52000</v>
@@ -2146,13 +2146,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="F57" s="18">
         <v>52000</v>
@@ -2169,13 +2169,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="F58" s="18">
         <v>52000</v>
@@ -2192,13 +2192,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="F59" s="18">
         <v>52000</v>
@@ -2212,16 +2212,16 @@
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="F60" s="18">
         <v>52000</v>
@@ -2238,13 +2238,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="F61" s="18">
         <v>52000</v>
@@ -2261,13 +2261,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="F62" s="18">
         <v>52000</v>
@@ -2284,16 +2284,16 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="F63" s="18">
-        <v>26000</v>
+        <v>52000</v>
       </c>
       <c r="G63" s="18">
         <v>1300000</v>
@@ -2307,13 +2307,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="F64" s="18">
         <v>52000</v>
@@ -2330,13 +2330,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="F65" s="18">
         <v>52000</v>
@@ -2353,13 +2353,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="F66" s="18">
         <v>52000</v>
@@ -2376,13 +2376,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="F67" s="18">
         <v>52000</v>
@@ -2399,13 +2399,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="F68" s="18">
         <v>52000</v>
@@ -2422,13 +2422,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="F69" s="18">
         <v>52000</v>
@@ -2445,13 +2445,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F70" s="18">
         <v>52000</v>
@@ -2468,13 +2468,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="F71" s="18">
         <v>52000</v>
@@ -2491,13 +2491,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="F72" s="18">
         <v>52000</v>
@@ -2514,13 +2514,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="F73" s="18">
         <v>52000</v>
@@ -2537,13 +2537,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F74" s="18">
         <v>52000</v>
@@ -2560,13 +2560,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="F75" s="18">
         <v>52000</v>
@@ -2583,13 +2583,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="F76" s="18">
         <v>52000</v>
@@ -2606,13 +2606,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D77" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D77" s="17" t="s">
-        <v>43</v>
-      </c>
       <c r="E77" s="16" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="F77" s="18">
         <v>52000</v>
@@ -2629,16 +2629,16 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D78" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D78" s="17" t="s">
-        <v>45</v>
-      </c>
       <c r="E78" s="16" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="F78" s="18">
-        <v>45066</v>
+        <v>52000</v>
       </c>
       <c r="G78" s="18">
         <v>1300000</v>
@@ -2652,13 +2652,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="F79" s="18">
         <v>52000</v>
@@ -2675,13 +2675,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="F80" s="18">
         <v>52000</v>
@@ -2698,13 +2698,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F81" s="18">
         <v>52000</v>
@@ -2718,16 +2718,16 @@
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="F82" s="18">
         <v>52000</v>
@@ -2744,19 +2744,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="F83" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G83" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2767,13 +2767,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="F84" s="18">
         <v>52000</v>
@@ -2790,19 +2790,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="F85" s="18">
         <v>52000</v>
       </c>
       <c r="G85" s="18">
-        <v>1193284</v>
+        <v>1300000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2813,19 +2813,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="F86" s="18">
         <v>52000</v>
       </c>
       <c r="G86" s="18">
-        <v>1193284</v>
+        <v>1300000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2836,19 +2836,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F87" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G87" s="18">
-        <v>1193284</v>
+        <v>1423500</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2859,19 +2859,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="F88" s="18">
         <v>52000</v>
       </c>
       <c r="G88" s="18">
-        <v>1193284</v>
+        <v>1300000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2882,19 +2882,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="F89" s="18">
         <v>52000</v>
       </c>
       <c r="G89" s="18">
-        <v>1193284</v>
+        <v>1300000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2905,19 +2905,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="F90" s="18">
         <v>52000</v>
       </c>
       <c r="G90" s="18">
-        <v>1193284</v>
+        <v>1300000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2925,16 +2925,16 @@
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="F91" s="18">
         <v>52000</v>
@@ -2948,16 +2948,16 @@
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="F92" s="18">
         <v>52000</v>
@@ -2971,16 +2971,16 @@
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="F93" s="18">
         <v>52000</v>
@@ -2994,16 +2994,16 @@
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="F94" s="18">
         <v>52000</v>
@@ -3020,19 +3020,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="F95" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G95" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3043,19 +3043,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="F96" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G96" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3066,19 +3066,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="F97" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G97" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3089,19 +3089,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="F98" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G98" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3112,16 +3112,16 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="F99" s="18">
-        <v>45066</v>
+        <v>52000</v>
       </c>
       <c r="G99" s="18">
         <v>1300000</v>
@@ -3135,13 +3135,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="F100" s="18">
         <v>52000</v>
@@ -3158,13 +3158,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="F101" s="18">
         <v>52000</v>
@@ -3181,13 +3181,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="F102" s="18">
         <v>52000</v>
@@ -3204,13 +3204,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="F103" s="18">
         <v>52000</v>
@@ -3227,13 +3227,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="F104" s="18">
         <v>52000</v>
@@ -3250,13 +3250,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="F105" s="18">
         <v>52000</v>
@@ -3270,16 +3270,16 @@
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B106" s="15" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="F106" s="18">
         <v>52000</v>
@@ -3296,19 +3296,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="F107" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G107" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3319,13 +3319,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="F108" s="18">
         <v>52000</v>
@@ -3348,7 +3348,7 @@
         <v>57</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="F109" s="18">
         <v>52000</v>
@@ -3371,10 +3371,10 @@
         <v>59</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="F110" s="18">
-        <v>45066</v>
+        <v>52000</v>
       </c>
       <c r="G110" s="18">
         <v>1300000</v>
@@ -3388,19 +3388,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="F111" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G111" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3411,13 +3411,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="F112" s="18">
         <v>52000</v>
@@ -3434,13 +3434,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="F113" s="18">
         <v>52000</v>
@@ -3457,13 +3457,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="F114" s="18">
         <v>52000</v>
@@ -3480,13 +3480,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="F115" s="18">
         <v>52000</v>
@@ -3503,13 +3503,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="F116" s="18">
         <v>52000</v>
@@ -3526,16 +3526,16 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="F117" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G117" s="18">
         <v>1300000</v>
@@ -3549,16 +3549,16 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="F118" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G118" s="18">
         <v>1300000</v>
@@ -3572,16 +3572,16 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="F119" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G119" s="18">
         <v>1300000</v>
@@ -3595,16 +3595,16 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="F120" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G120" s="18">
         <v>1300000</v>
@@ -3618,19 +3618,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F121" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G121" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3641,19 +3641,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F122" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G122" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3664,19 +3664,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F123" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G123" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3687,19 +3687,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F124" s="18">
-        <v>40000</v>
+        <v>56940</v>
       </c>
       <c r="G124" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3710,19 +3710,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F125" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G125" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3733,19 +3733,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F126" s="18">
-        <v>24000</v>
+        <v>52000</v>
       </c>
       <c r="G126" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3756,19 +3756,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="F127" s="18">
-        <v>45066</v>
+        <v>56940</v>
       </c>
       <c r="G127" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3779,13 +3779,13 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="F128" s="18">
         <v>52000</v>
@@ -3802,13 +3802,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="F129" s="18">
         <v>52000</v>
@@ -3825,13 +3825,13 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="F130" s="18">
         <v>52000</v>
@@ -3848,13 +3848,13 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="F131" s="18">
         <v>52000</v>
@@ -3871,13 +3871,13 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="F132" s="18">
         <v>52000</v>
@@ -3894,13 +3894,13 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="F133" s="18">
         <v>52000</v>
@@ -3917,13 +3917,13 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="F134" s="18">
         <v>52000</v>
@@ -3940,13 +3940,13 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="F135" s="18">
         <v>52000</v>
@@ -3963,13 +3963,13 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="F136" s="18">
         <v>52000</v>
@@ -3986,13 +3986,13 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="F137" s="18">
         <v>52000</v>
@@ -4009,13 +4009,13 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="F138" s="18">
         <v>52000</v>
@@ -4032,19 +4032,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="F139" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G139" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4055,13 +4055,13 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="F140" s="18">
         <v>52000</v>
@@ -4078,13 +4078,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="F141" s="18">
         <v>52000</v>
@@ -4101,19 +4101,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="F142" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G142" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4124,13 +4124,13 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="F143" s="18">
         <v>52000</v>
@@ -4147,13 +4147,13 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D144" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E144" s="16" t="s">
         <v>76</v>
-      </c>
-      <c r="D144" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E144" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F144" s="18">
         <v>52000</v>
@@ -4170,13 +4170,13 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D145" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E145" s="16" t="s">
         <v>76</v>
-      </c>
-      <c r="D145" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E145" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F145" s="18">
         <v>52000</v>
@@ -4193,16 +4193,16 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="D146" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E146" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E146" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F146" s="18">
-        <v>52000</v>
+        <v>45066</v>
       </c>
       <c r="G146" s="18">
         <v>1300000</v>
@@ -4216,16 +4216,16 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="D147" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E147" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E147" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F147" s="18">
-        <v>52000</v>
+        <v>45066</v>
       </c>
       <c r="G147" s="18">
         <v>1300000</v>
@@ -4239,16 +4239,16 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="D148" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E148" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E148" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F148" s="18">
-        <v>52000</v>
+        <v>45066</v>
       </c>
       <c r="G148" s="18">
         <v>1300000</v>
@@ -4262,16 +4262,16 @@
         <v>8</v>
       </c>
       <c r="C149" s="22" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D149" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E149" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="E149" s="22" t="s">
-        <v>16</v>
-      </c>
       <c r="F149" s="24">
-        <v>26000</v>
+        <v>45066</v>
       </c>
       <c r="G149" s="24">
         <v>1300000</v>

--- a/Data/EC/NIT-9013534837.xlsx
+++ b/Data/EC/NIT-9013534837.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D77C00BA-C036-4416-ABA0-29E1F49ED7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{152B2EA2-1B47-4830-A9A5-ACD4B8743A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3C444E05-C5F5-4EC8-A09A-29A5C5537827}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{10388328-4DFD-436C-B1BC-196861F994AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -368,9 +368,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -383,7 +381,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -577,29 +577,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -618,19 +618,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -683,7 +689,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6A7BC62-6938-F879-8CAF-FE552383051A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E117826-96CA-EB92-870A-B5B9DC965A8C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1034,7 +1040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD109F00-57A6-4E71-885E-91D309D9E634}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2404500-90BD-4881-8532-24E62ECF38D2}">
   <dimension ref="B2:J155"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1057,49 +1063,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -1107,7 +1113,7 @@
         <v>79</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1123,7 +1129,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9013534837</v>
       </c>
@@ -1139,7 +1145,7 @@
         <v>80</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>6806008</v>
       </c>
@@ -1208,18 +1214,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>35112</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>877803</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1231,18 +1237,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>35112</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>877803</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1254,18 +1260,18 @@
       <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>24000</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>1000000</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1277,18 +1283,18 @@
       <c r="D19" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>40000</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>1000000</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1300,18 +1306,18 @@
       <c r="D20" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>40000</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>1000000</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1323,18 +1329,18 @@
       <c r="D21" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>40000</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>1000000</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1346,18 +1352,18 @@
       <c r="D22" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>40000</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>1000000</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1369,18 +1375,18 @@
       <c r="D23" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>40000</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>1000000</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1392,18 +1398,18 @@
       <c r="D24" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G24" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="F24" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G24" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1415,18 +1421,18 @@
       <c r="D25" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G25" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="F25" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G25" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1438,18 +1444,18 @@
       <c r="D26" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G26" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="F26" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G26" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1461,18 +1467,18 @@
       <c r="D27" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G27" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="F27" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G27" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1484,18 +1490,18 @@
       <c r="D28" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G28" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="F28" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G28" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1507,18 +1513,18 @@
       <c r="D29" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G29" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="F29" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G29" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1530,18 +1536,18 @@
       <c r="D30" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G30" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="F30" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G30" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1553,18 +1559,18 @@
       <c r="D31" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F31" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G31" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="F31" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G31" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1576,18 +1582,18 @@
       <c r="D32" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="19">
         <v>26000</v>
       </c>
-      <c r="G32" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="G32" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1599,18 +1605,18 @@
       <c r="D33" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F33" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G33" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="F33" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G33" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1622,18 +1628,18 @@
       <c r="D34" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G34" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="F34" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G34" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1645,18 +1651,18 @@
       <c r="D35" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F35" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G35" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="F35" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G35" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1668,18 +1674,18 @@
       <c r="D36" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G36" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="F36" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G36" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -1691,18 +1697,18 @@
       <c r="D37" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F37" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G37" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="F37" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G37" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1714,18 +1720,18 @@
       <c r="D38" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F38" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G38" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="F38" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G38" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -1737,18 +1743,18 @@
       <c r="D39" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F39" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G39" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="F39" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G39" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
@@ -1760,18 +1766,18 @@
       <c r="D40" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F40" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G40" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="F40" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G40" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
@@ -1783,18 +1789,18 @@
       <c r="D41" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F41" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G41" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="F41" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G41" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
@@ -1806,18 +1812,18 @@
       <c r="D42" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F42" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G42" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
+      <c r="F42" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G42" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
@@ -1829,18 +1835,18 @@
       <c r="D43" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F43" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G43" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
+      <c r="F43" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G43" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
@@ -1852,18 +1858,18 @@
       <c r="D44" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F44" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G44" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
+      <c r="F44" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G44" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
@@ -1875,18 +1881,18 @@
       <c r="D45" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="19">
         <v>26000</v>
       </c>
-      <c r="G45" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
+      <c r="G45" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
@@ -1898,18 +1904,18 @@
       <c r="D46" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F46" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G46" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
+      <c r="F46" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G46" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
@@ -1921,18 +1927,18 @@
       <c r="D47" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F47" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G47" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
+      <c r="F47" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G47" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
@@ -1944,18 +1950,18 @@
       <c r="D48" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F48" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G48" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
+      <c r="F48" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G48" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
@@ -1967,18 +1973,18 @@
       <c r="D49" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F49" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G49" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
+      <c r="F49" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G49" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
@@ -1990,18 +1996,18 @@
       <c r="D50" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F50" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G50" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
+      <c r="F50" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G50" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
@@ -2013,18 +2019,18 @@
       <c r="D51" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F51" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G51" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
+      <c r="F51" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G51" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
@@ -2036,18 +2042,18 @@
       <c r="D52" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F52" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G52" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
+      <c r="F52" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G52" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
@@ -2059,18 +2065,18 @@
       <c r="D53" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F53" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G53" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
+      <c r="F53" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G53" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
@@ -2082,18 +2088,18 @@
       <c r="D54" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F54" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G54" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
+      <c r="F54" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G54" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
@@ -2105,18 +2111,18 @@
       <c r="D55" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F55" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G55" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
+      <c r="F55" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G55" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
@@ -2128,18 +2134,18 @@
       <c r="D56" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F56" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G56" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
+      <c r="F56" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G56" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
@@ -2151,18 +2157,18 @@
       <c r="D57" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F57" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G57" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
+      <c r="F57" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G57" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
@@ -2174,18 +2180,18 @@
       <c r="D58" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F58" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G58" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
+      <c r="F58" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G58" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
@@ -2197,18 +2203,18 @@
       <c r="D59" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F59" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G59" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
+      <c r="F59" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G59" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
@@ -2220,18 +2226,18 @@
       <c r="D60" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F60" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G60" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
+      <c r="F60" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G60" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
@@ -2243,18 +2249,18 @@
       <c r="D61" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F61" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G61" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
+      <c r="F61" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G61" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
@@ -2266,18 +2272,18 @@
       <c r="D62" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F62" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G62" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
+      <c r="F62" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G62" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
@@ -2289,18 +2295,18 @@
       <c r="D63" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F63" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G63" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
+      <c r="F63" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G63" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
@@ -2312,18 +2318,18 @@
       <c r="D64" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F64" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G64" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
+      <c r="F64" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G64" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
@@ -2335,18 +2341,18 @@
       <c r="D65" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F65" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G65" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
+      <c r="F65" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G65" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
@@ -2358,18 +2364,18 @@
       <c r="D66" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F66" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G66" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
+      <c r="F66" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G66" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
@@ -2381,18 +2387,18 @@
       <c r="D67" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F67" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G67" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
+      <c r="F67" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G67" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
@@ -2404,18 +2410,18 @@
       <c r="D68" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F68" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G68" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
+      <c r="F68" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G68" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="21"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
@@ -2427,18 +2433,18 @@
       <c r="D69" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F69" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G69" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
+      <c r="F69" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G69" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
@@ -2450,18 +2456,18 @@
       <c r="D70" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F70" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G70" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
+      <c r="F70" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G70" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="21"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
@@ -2473,18 +2479,18 @@
       <c r="D71" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F71" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G71" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
+      <c r="F71" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G71" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="21"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
@@ -2496,18 +2502,18 @@
       <c r="D72" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F72" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G72" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
+      <c r="F72" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G72" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="21"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
@@ -2519,18 +2525,18 @@
       <c r="D73" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F73" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G73" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
+      <c r="F73" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G73" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="21"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
@@ -2542,18 +2548,18 @@
       <c r="D74" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F74" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G74" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
+      <c r="F74" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G74" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="21"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
@@ -2565,18 +2571,18 @@
       <c r="D75" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F75" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G75" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
+      <c r="F75" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G75" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="21"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
@@ -2588,18 +2594,18 @@
       <c r="D76" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F76" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G76" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
+      <c r="F76" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G76" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="21"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
@@ -2611,18 +2617,18 @@
       <c r="D77" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F77" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G77" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
+      <c r="F77" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G77" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="21"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
@@ -2634,18 +2640,18 @@
       <c r="D78" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F78" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G78" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
+      <c r="F78" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G78" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="21"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
@@ -2657,18 +2663,18 @@
       <c r="D79" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E79" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F79" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G79" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="20"/>
+      <c r="F79" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G79" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="21"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
@@ -2680,18 +2686,18 @@
       <c r="D80" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F80" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G80" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="20"/>
+      <c r="F80" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G80" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="21"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
@@ -2703,18 +2709,18 @@
       <c r="D81" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E81" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F81" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G81" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="20"/>
+      <c r="F81" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G81" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="21"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
@@ -2726,18 +2732,18 @@
       <c r="D82" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F82" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G82" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="20"/>
+      <c r="F82" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G82" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="21"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
@@ -2749,18 +2755,18 @@
       <c r="D83" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="E83" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F83" s="18">
+      <c r="F83" s="19">
         <v>56940</v>
       </c>
-      <c r="G83" s="18">
+      <c r="G83" s="19">
         <v>1423500</v>
       </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="20"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="21"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
@@ -2772,18 +2778,18 @@
       <c r="D84" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E84" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F84" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G84" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
+      <c r="F84" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G84" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="21"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
@@ -2795,18 +2801,18 @@
       <c r="D85" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="E85" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F85" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G85" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="20"/>
+      <c r="F85" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G85" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="21"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
@@ -2818,18 +2824,18 @@
       <c r="D86" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E86" s="16" t="s">
+      <c r="E86" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F86" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G86" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="20"/>
+      <c r="F86" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G86" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="21"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
@@ -2841,18 +2847,18 @@
       <c r="D87" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E87" s="16" t="s">
+      <c r="E87" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F87" s="18">
+      <c r="F87" s="19">
         <v>56940</v>
       </c>
-      <c r="G87" s="18">
+      <c r="G87" s="19">
         <v>1423500</v>
       </c>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="20"/>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="21"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
@@ -2864,18 +2870,18 @@
       <c r="D88" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="E88" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F88" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G88" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="20"/>
+      <c r="F88" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G88" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="21"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
@@ -2887,18 +2893,18 @@
       <c r="D89" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E89" s="16" t="s">
+      <c r="E89" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F89" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G89" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="20"/>
+      <c r="F89" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G89" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="21"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
@@ -2910,18 +2916,18 @@
       <c r="D90" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E90" s="16" t="s">
+      <c r="E90" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F90" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G90" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="20"/>
+      <c r="F90" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G90" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="21"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
@@ -2933,18 +2939,18 @@
       <c r="D91" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E91" s="16" t="s">
+      <c r="E91" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F91" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G91" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="20"/>
+      <c r="F91" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G91" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="21"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
@@ -2956,18 +2962,18 @@
       <c r="D92" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="E92" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F92" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G92" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="20"/>
+      <c r="F92" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G92" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="21"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
@@ -2979,18 +2985,18 @@
       <c r="D93" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="E93" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F93" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G93" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="20"/>
+      <c r="F93" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G93" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="21"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
@@ -3002,18 +3008,18 @@
       <c r="D94" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E94" s="16" t="s">
+      <c r="E94" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F94" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G94" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="20"/>
+      <c r="F94" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G94" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="21"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
@@ -3025,18 +3031,18 @@
       <c r="D95" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E95" s="16" t="s">
+      <c r="E95" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F95" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G95" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="20"/>
+      <c r="F95" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G95" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="21"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
@@ -3048,18 +3054,18 @@
       <c r="D96" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E96" s="16" t="s">
+      <c r="E96" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F96" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G96" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="20"/>
+      <c r="F96" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G96" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="21"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
@@ -3071,18 +3077,18 @@
       <c r="D97" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E97" s="16" t="s">
+      <c r="E97" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F97" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G97" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="20"/>
+      <c r="F97" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G97" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="21"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
@@ -3094,18 +3100,18 @@
       <c r="D98" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E98" s="16" t="s">
+      <c r="E98" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F98" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G98" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="20"/>
+      <c r="F98" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G98" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="21"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B99" s="15" t="s">
@@ -3117,18 +3123,18 @@
       <c r="D99" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E99" s="16" t="s">
+      <c r="E99" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F99" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G99" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="20"/>
+      <c r="F99" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G99" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="21"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B100" s="15" t="s">
@@ -3140,18 +3146,18 @@
       <c r="D100" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E100" s="16" t="s">
+      <c r="E100" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F100" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G100" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="20"/>
+      <c r="F100" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G100" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="21"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
@@ -3163,18 +3169,18 @@
       <c r="D101" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E101" s="16" t="s">
+      <c r="E101" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F101" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G101" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="20"/>
+      <c r="F101" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G101" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H101" s="20"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="21"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B102" s="15" t="s">
@@ -3186,18 +3192,18 @@
       <c r="D102" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E102" s="16" t="s">
+      <c r="E102" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F102" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G102" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="20"/>
+      <c r="F102" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G102" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H102" s="20"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="21"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B103" s="15" t="s">
@@ -3209,18 +3215,18 @@
       <c r="D103" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E103" s="16" t="s">
+      <c r="E103" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F103" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G103" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="20"/>
+      <c r="F103" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G103" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="21"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B104" s="15" t="s">
@@ -3232,18 +3238,18 @@
       <c r="D104" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E104" s="16" t="s">
+      <c r="E104" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F104" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G104" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="20"/>
+      <c r="F104" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G104" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H104" s="20"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="21"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B105" s="15" t="s">
@@ -3255,18 +3261,18 @@
       <c r="D105" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E105" s="16" t="s">
+      <c r="E105" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F105" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G105" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="20"/>
+      <c r="F105" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G105" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H105" s="20"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="21"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B106" s="15" t="s">
@@ -3278,18 +3284,18 @@
       <c r="D106" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E106" s="16" t="s">
+      <c r="E106" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F106" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G106" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="20"/>
+      <c r="F106" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G106" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="21"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B107" s="15" t="s">
@@ -3301,18 +3307,18 @@
       <c r="D107" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E107" s="16" t="s">
+      <c r="E107" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F107" s="18">
+      <c r="F107" s="19">
         <v>56940</v>
       </c>
-      <c r="G107" s="18">
+      <c r="G107" s="19">
         <v>1423500</v>
       </c>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="20"/>
+      <c r="H107" s="20"/>
+      <c r="I107" s="20"/>
+      <c r="J107" s="21"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B108" s="15" t="s">
@@ -3324,18 +3330,18 @@
       <c r="D108" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E108" s="16" t="s">
+      <c r="E108" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F108" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G108" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="20"/>
+      <c r="F108" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G108" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H108" s="20"/>
+      <c r="I108" s="20"/>
+      <c r="J108" s="21"/>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B109" s="15" t="s">
@@ -3347,18 +3353,18 @@
       <c r="D109" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E109" s="16" t="s">
+      <c r="E109" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F109" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G109" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="20"/>
+      <c r="F109" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G109" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="21"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B110" s="15" t="s">
@@ -3370,18 +3376,18 @@
       <c r="D110" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E110" s="16" t="s">
+      <c r="E110" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F110" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G110" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="20"/>
+      <c r="F110" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G110" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H110" s="20"/>
+      <c r="I110" s="20"/>
+      <c r="J110" s="21"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B111" s="15" t="s">
@@ -3393,18 +3399,18 @@
       <c r="D111" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E111" s="16" t="s">
+      <c r="E111" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F111" s="18">
+      <c r="F111" s="19">
         <v>56940</v>
       </c>
-      <c r="G111" s="18">
+      <c r="G111" s="19">
         <v>1423500</v>
       </c>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="20"/>
+      <c r="H111" s="20"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="21"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B112" s="15" t="s">
@@ -3416,18 +3422,18 @@
       <c r="D112" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E112" s="16" t="s">
+      <c r="E112" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F112" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G112" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="20"/>
+      <c r="F112" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G112" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H112" s="20"/>
+      <c r="I112" s="20"/>
+      <c r="J112" s="21"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="15" t="s">
@@ -3439,18 +3445,18 @@
       <c r="D113" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E113" s="16" t="s">
+      <c r="E113" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F113" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G113" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="20"/>
+      <c r="F113" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G113" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H113" s="20"/>
+      <c r="I113" s="20"/>
+      <c r="J113" s="21"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B114" s="15" t="s">
@@ -3462,18 +3468,18 @@
       <c r="D114" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E114" s="16" t="s">
+      <c r="E114" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F114" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G114" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="20"/>
+      <c r="F114" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G114" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H114" s="20"/>
+      <c r="I114" s="20"/>
+      <c r="J114" s="21"/>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B115" s="15" t="s">
@@ -3485,18 +3491,18 @@
       <c r="D115" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E115" s="16" t="s">
+      <c r="E115" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F115" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G115" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="20"/>
+      <c r="F115" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G115" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H115" s="20"/>
+      <c r="I115" s="20"/>
+      <c r="J115" s="21"/>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B116" s="15" t="s">
@@ -3508,18 +3514,18 @@
       <c r="D116" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E116" s="16" t="s">
+      <c r="E116" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F116" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G116" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H116" s="19"/>
-      <c r="I116" s="19"/>
-      <c r="J116" s="20"/>
+      <c r="F116" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G116" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H116" s="20"/>
+      <c r="I116" s="20"/>
+      <c r="J116" s="21"/>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B117" s="15" t="s">
@@ -3531,18 +3537,18 @@
       <c r="D117" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E117" s="16" t="s">
+      <c r="E117" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F117" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G117" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H117" s="19"/>
-      <c r="I117" s="19"/>
-      <c r="J117" s="20"/>
+      <c r="F117" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G117" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H117" s="20"/>
+      <c r="I117" s="20"/>
+      <c r="J117" s="21"/>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B118" s="15" t="s">
@@ -3554,18 +3560,18 @@
       <c r="D118" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E118" s="16" t="s">
+      <c r="E118" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F118" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G118" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
-      <c r="J118" s="20"/>
+      <c r="F118" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G118" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H118" s="20"/>
+      <c r="I118" s="20"/>
+      <c r="J118" s="21"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B119" s="15" t="s">
@@ -3577,18 +3583,18 @@
       <c r="D119" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E119" s="16" t="s">
+      <c r="E119" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F119" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G119" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="20"/>
+      <c r="F119" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G119" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H119" s="20"/>
+      <c r="I119" s="20"/>
+      <c r="J119" s="21"/>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B120" s="15" t="s">
@@ -3600,18 +3606,18 @@
       <c r="D120" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E120" s="16" t="s">
+      <c r="E120" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F120" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G120" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H120" s="19"/>
-      <c r="I120" s="19"/>
-      <c r="J120" s="20"/>
+      <c r="F120" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G120" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H120" s="20"/>
+      <c r="I120" s="20"/>
+      <c r="J120" s="21"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B121" s="15" t="s">
@@ -3623,18 +3629,18 @@
       <c r="D121" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E121" s="16" t="s">
+      <c r="E121" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F121" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G121" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H121" s="19"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="20"/>
+      <c r="F121" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G121" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H121" s="20"/>
+      <c r="I121" s="20"/>
+      <c r="J121" s="21"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B122" s="15" t="s">
@@ -3646,18 +3652,18 @@
       <c r="D122" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E122" s="16" t="s">
+      <c r="E122" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F122" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G122" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="20"/>
+      <c r="F122" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G122" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H122" s="20"/>
+      <c r="I122" s="20"/>
+      <c r="J122" s="21"/>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B123" s="15" t="s">
@@ -3669,18 +3675,18 @@
       <c r="D123" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E123" s="16" t="s">
+      <c r="E123" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F123" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G123" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
-      <c r="J123" s="20"/>
+      <c r="F123" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G123" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H123" s="20"/>
+      <c r="I123" s="20"/>
+      <c r="J123" s="21"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B124" s="15" t="s">
@@ -3692,18 +3698,18 @@
       <c r="D124" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E124" s="16" t="s">
+      <c r="E124" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F124" s="18">
+      <c r="F124" s="19">
         <v>56940</v>
       </c>
-      <c r="G124" s="18">
+      <c r="G124" s="19">
         <v>1423500</v>
       </c>
-      <c r="H124" s="19"/>
-      <c r="I124" s="19"/>
-      <c r="J124" s="20"/>
+      <c r="H124" s="20"/>
+      <c r="I124" s="20"/>
+      <c r="J124" s="21"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B125" s="15" t="s">
@@ -3715,18 +3721,18 @@
       <c r="D125" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E125" s="16" t="s">
+      <c r="E125" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F125" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G125" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H125" s="19"/>
-      <c r="I125" s="19"/>
-      <c r="J125" s="20"/>
+      <c r="F125" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G125" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H125" s="20"/>
+      <c r="I125" s="20"/>
+      <c r="J125" s="21"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B126" s="15" t="s">
@@ -3738,18 +3744,18 @@
       <c r="D126" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E126" s="16" t="s">
+      <c r="E126" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F126" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G126" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="20"/>
+      <c r="F126" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G126" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H126" s="20"/>
+      <c r="I126" s="20"/>
+      <c r="J126" s="21"/>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B127" s="15" t="s">
@@ -3761,18 +3767,18 @@
       <c r="D127" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E127" s="16" t="s">
+      <c r="E127" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F127" s="18">
+      <c r="F127" s="19">
         <v>56940</v>
       </c>
-      <c r="G127" s="18">
+      <c r="G127" s="19">
         <v>1423500</v>
       </c>
-      <c r="H127" s="19"/>
-      <c r="I127" s="19"/>
-      <c r="J127" s="20"/>
+      <c r="H127" s="20"/>
+      <c r="I127" s="20"/>
+      <c r="J127" s="21"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B128" s="15" t="s">
@@ -3784,18 +3790,18 @@
       <c r="D128" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E128" s="16" t="s">
+      <c r="E128" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F128" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G128" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H128" s="19"/>
-      <c r="I128" s="19"/>
-      <c r="J128" s="20"/>
+      <c r="F128" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G128" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H128" s="20"/>
+      <c r="I128" s="20"/>
+      <c r="J128" s="21"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B129" s="15" t="s">
@@ -3807,18 +3813,18 @@
       <c r="D129" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E129" s="16" t="s">
+      <c r="E129" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F129" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G129" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H129" s="19"/>
-      <c r="I129" s="19"/>
-      <c r="J129" s="20"/>
+      <c r="F129" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G129" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H129" s="20"/>
+      <c r="I129" s="20"/>
+      <c r="J129" s="21"/>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B130" s="15" t="s">
@@ -3830,18 +3836,18 @@
       <c r="D130" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E130" s="16" t="s">
+      <c r="E130" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F130" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G130" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H130" s="19"/>
-      <c r="I130" s="19"/>
-      <c r="J130" s="20"/>
+      <c r="F130" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G130" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H130" s="20"/>
+      <c r="I130" s="20"/>
+      <c r="J130" s="21"/>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B131" s="15" t="s">
@@ -3853,18 +3859,18 @@
       <c r="D131" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E131" s="16" t="s">
+      <c r="E131" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F131" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G131" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H131" s="19"/>
-      <c r="I131" s="19"/>
-      <c r="J131" s="20"/>
+      <c r="F131" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G131" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H131" s="20"/>
+      <c r="I131" s="20"/>
+      <c r="J131" s="21"/>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B132" s="15" t="s">
@@ -3876,18 +3882,18 @@
       <c r="D132" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E132" s="16" t="s">
+      <c r="E132" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F132" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G132" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H132" s="19"/>
-      <c r="I132" s="19"/>
-      <c r="J132" s="20"/>
+      <c r="F132" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G132" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H132" s="20"/>
+      <c r="I132" s="20"/>
+      <c r="J132" s="21"/>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B133" s="15" t="s">
@@ -3899,18 +3905,18 @@
       <c r="D133" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E133" s="16" t="s">
+      <c r="E133" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F133" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G133" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H133" s="19"/>
-      <c r="I133" s="19"/>
-      <c r="J133" s="20"/>
+      <c r="F133" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G133" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H133" s="20"/>
+      <c r="I133" s="20"/>
+      <c r="J133" s="21"/>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B134" s="15" t="s">
@@ -3922,18 +3928,18 @@
       <c r="D134" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E134" s="16" t="s">
+      <c r="E134" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F134" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G134" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H134" s="19"/>
-      <c r="I134" s="19"/>
-      <c r="J134" s="20"/>
+      <c r="F134" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G134" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H134" s="20"/>
+      <c r="I134" s="20"/>
+      <c r="J134" s="21"/>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B135" s="15" t="s">
@@ -3945,18 +3951,18 @@
       <c r="D135" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E135" s="16" t="s">
+      <c r="E135" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F135" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G135" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H135" s="19"/>
-      <c r="I135" s="19"/>
-      <c r="J135" s="20"/>
+      <c r="F135" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G135" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H135" s="20"/>
+      <c r="I135" s="20"/>
+      <c r="J135" s="21"/>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B136" s="15" t="s">
@@ -3968,18 +3974,18 @@
       <c r="D136" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E136" s="16" t="s">
+      <c r="E136" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F136" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G136" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H136" s="19"/>
-      <c r="I136" s="19"/>
-      <c r="J136" s="20"/>
+      <c r="F136" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G136" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H136" s="20"/>
+      <c r="I136" s="20"/>
+      <c r="J136" s="21"/>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B137" s="15" t="s">
@@ -3991,18 +3997,18 @@
       <c r="D137" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E137" s="16" t="s">
+      <c r="E137" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F137" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G137" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H137" s="19"/>
-      <c r="I137" s="19"/>
-      <c r="J137" s="20"/>
+      <c r="F137" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G137" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H137" s="20"/>
+      <c r="I137" s="20"/>
+      <c r="J137" s="21"/>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B138" s="15" t="s">
@@ -4014,18 +4020,18 @@
       <c r="D138" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E138" s="16" t="s">
+      <c r="E138" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F138" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G138" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H138" s="19"/>
-      <c r="I138" s="19"/>
-      <c r="J138" s="20"/>
+      <c r="F138" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G138" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H138" s="20"/>
+      <c r="I138" s="20"/>
+      <c r="J138" s="21"/>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B139" s="15" t="s">
@@ -4037,18 +4043,18 @@
       <c r="D139" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E139" s="16" t="s">
+      <c r="E139" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F139" s="18">
+      <c r="F139" s="19">
         <v>56940</v>
       </c>
-      <c r="G139" s="18">
+      <c r="G139" s="19">
         <v>1423500</v>
       </c>
-      <c r="H139" s="19"/>
-      <c r="I139" s="19"/>
-      <c r="J139" s="20"/>
+      <c r="H139" s="20"/>
+      <c r="I139" s="20"/>
+      <c r="J139" s="21"/>
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B140" s="15" t="s">
@@ -4060,18 +4066,18 @@
       <c r="D140" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E140" s="16" t="s">
+      <c r="E140" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F140" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G140" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H140" s="19"/>
-      <c r="I140" s="19"/>
-      <c r="J140" s="20"/>
+      <c r="F140" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G140" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H140" s="20"/>
+      <c r="I140" s="20"/>
+      <c r="J140" s="21"/>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B141" s="15" t="s">
@@ -4083,18 +4089,18 @@
       <c r="D141" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E141" s="16" t="s">
+      <c r="E141" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F141" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G141" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H141" s="19"/>
-      <c r="I141" s="19"/>
-      <c r="J141" s="20"/>
+      <c r="F141" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G141" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H141" s="20"/>
+      <c r="I141" s="20"/>
+      <c r="J141" s="21"/>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B142" s="15" t="s">
@@ -4106,18 +4112,18 @@
       <c r="D142" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E142" s="16" t="s">
+      <c r="E142" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F142" s="18">
+      <c r="F142" s="19">
         <v>56940</v>
       </c>
-      <c r="G142" s="18">
+      <c r="G142" s="19">
         <v>1423500</v>
       </c>
-      <c r="H142" s="19"/>
-      <c r="I142" s="19"/>
-      <c r="J142" s="20"/>
+      <c r="H142" s="20"/>
+      <c r="I142" s="20"/>
+      <c r="J142" s="21"/>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B143" s="15" t="s">
@@ -4129,18 +4135,18 @@
       <c r="D143" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E143" s="16" t="s">
+      <c r="E143" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F143" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G143" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H143" s="19"/>
-      <c r="I143" s="19"/>
-      <c r="J143" s="20"/>
+      <c r="F143" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G143" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H143" s="20"/>
+      <c r="I143" s="20"/>
+      <c r="J143" s="21"/>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B144" s="15" t="s">
@@ -4152,18 +4158,18 @@
       <c r="D144" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E144" s="16" t="s">
+      <c r="E144" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F144" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G144" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H144" s="19"/>
-      <c r="I144" s="19"/>
-      <c r="J144" s="20"/>
+      <c r="F144" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G144" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H144" s="20"/>
+      <c r="I144" s="20"/>
+      <c r="J144" s="21"/>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B145" s="15" t="s">
@@ -4175,18 +4181,18 @@
       <c r="D145" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E145" s="16" t="s">
+      <c r="E145" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F145" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G145" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H145" s="19"/>
-      <c r="I145" s="19"/>
-      <c r="J145" s="20"/>
+      <c r="F145" s="19">
+        <v>52000</v>
+      </c>
+      <c r="G145" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H145" s="20"/>
+      <c r="I145" s="20"/>
+      <c r="J145" s="21"/>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B146" s="15" t="s">
@@ -4198,18 +4204,18 @@
       <c r="D146" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E146" s="16" t="s">
+      <c r="E146" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F146" s="18">
+      <c r="F146" s="19">
         <v>45066</v>
       </c>
-      <c r="G146" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H146" s="19"/>
-      <c r="I146" s="19"/>
-      <c r="J146" s="20"/>
+      <c r="G146" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H146" s="20"/>
+      <c r="I146" s="20"/>
+      <c r="J146" s="21"/>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B147" s="15" t="s">
@@ -4221,18 +4227,18 @@
       <c r="D147" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E147" s="16" t="s">
+      <c r="E147" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F147" s="18">
+      <c r="F147" s="19">
         <v>45066</v>
       </c>
-      <c r="G147" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H147" s="19"/>
-      <c r="I147" s="19"/>
-      <c r="J147" s="20"/>
+      <c r="G147" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H147" s="20"/>
+      <c r="I147" s="20"/>
+      <c r="J147" s="21"/>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B148" s="15" t="s">
@@ -4244,47 +4250,47 @@
       <c r="D148" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E148" s="16" t="s">
+      <c r="E148" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F148" s="18">
+      <c r="F148" s="19">
         <v>45066</v>
       </c>
-      <c r="G148" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H148" s="19"/>
-      <c r="I148" s="19"/>
-      <c r="J148" s="20"/>
+      <c r="G148" s="19">
+        <v>1300000</v>
+      </c>
+      <c r="H148" s="20"/>
+      <c r="I148" s="20"/>
+      <c r="J148" s="21"/>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B149" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C149" s="22" t="s">
+      <c r="B149" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D149" s="23" t="s">
+      <c r="D149" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="E149" s="22" t="s">
+      <c r="E149" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="F149" s="24">
+      <c r="F149" s="26">
         <v>45066</v>
       </c>
-      <c r="G149" s="24">
-        <v>1300000</v>
-      </c>
-      <c r="H149" s="25"/>
-      <c r="I149" s="25"/>
-      <c r="J149" s="26"/>
+      <c r="G149" s="26">
+        <v>1300000</v>
+      </c>
+      <c r="H149" s="27"/>
+      <c r="I149" s="27"/>
+      <c r="J149" s="28"/>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B154" s="32" t="s">
+      <c r="B154" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="C154" s="32"/>
+      <c r="C154" s="34"/>
       <c r="H154" s="1" t="s">
         <v>87</v>
       </c>
@@ -4292,10 +4298,10 @@
       <c r="J154" s="1"/>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B155" s="32" t="s">
+      <c r="B155" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="C155" s="32"/>
+      <c r="C155" s="34"/>
       <c r="H155" s="1" t="s">
         <v>88</v>
       </c>
